--- a/solid state physics/3. hall effect of semiconductors/data.xlsx
+++ b/solid state physics/3. hall effect of semiconductors/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\all notes\labs\solid state physics\3. hall effect of semiconductors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12A24D7-37E0-4BFD-B12B-4F21ED46A2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238DC97E-8C51-4AC4-962E-E97E6E4CB5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{01EA9E5C-69ED-4F86-AACC-A57B7B7E9B25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{01EA9E5C-69ED-4F86-AACC-A57B7B7E9B25}"/>
   </bookViews>
   <sheets>
     <sheet name="geN" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>i</t>
   </si>
@@ -56,45 +56,6 @@
   </si>
   <si>
     <t>hall_coeff</t>
-  </si>
-  <si>
-    <t>Current (A)</t>
-  </si>
-  <si>
-    <t>Hall Voltage (mV)</t>
-  </si>
-  <si>
-    <t>Thermal EMF</t>
-  </si>
-  <si>
-    <t>(mV)</t>
-  </si>
-  <si>
-    <t>Voltage (mV)</t>
-  </si>
-  <si>
-    <t>Hall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offset </t>
-  </si>
-  <si>
-    <t>Corrected Hall</t>
-  </si>
-  <si>
-    <t>Voltage(mV)</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>($^\circ$C)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hall </t>
-  </si>
-  <si>
-    <t>Coefficient (cm$^3$/C)</t>
   </si>
 </sst>
 </file>
@@ -2330,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A476FD-7BD9-4C75-B984-C69E8061C929}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2516,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D151349-615D-45B3-AD6C-AA9DD78FCCCA}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2594,27 +2555,12 @@
         <f>(E3*0.05)/(0.8*962*0.0001)</f>
         <v>6.0420997920997905</v>
       </c>
-      <c r="H3" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="I3" s="1">
-        <v>27.8</v>
-      </c>
-      <c r="J3" s="1">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1">
-        <f>H3*25</f>
-        <v>25.5</v>
-      </c>
-      <c r="L3" s="1">
-        <f>I3-J3</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="M3" s="1">
-        <f>(L3*0.05)/(0.8*962*0.0001)</f>
-        <v>6.3669438669438678</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -2638,24 +2584,10 @@
         <f t="shared" si="1"/>
         <v>5.6522869022869022</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -2679,24 +2611,10 @@
         <f t="shared" si="1"/>
         <v>4.0930353430353437</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -2806,7 +2724,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="K22" sqref="C1:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2822,18 +2740,8 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -2842,18 +2750,8 @@
       <c r="B2">
         <v>6.3</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="E2" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3">
-        <v>35</v>
-      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2862,18 +2760,8 @@
       <c r="B3">
         <v>7.9</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>36.6</v>
-      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2882,18 +2770,8 @@
       <c r="B4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.23</v>
-      </c>
-      <c r="G4" s="3">
-        <v>38</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2902,18 +2780,8 @@
       <c r="B5">
         <v>10.7</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G5" s="3">
-        <v>38.799999999999997</v>
-      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2922,18 +2790,8 @@
       <c r="B6">
         <v>12.1</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.41</v>
-      </c>
-      <c r="G6" s="3">
-        <v>40.1</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2942,18 +2800,8 @@
       <c r="B7">
         <v>13.6</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="G7" s="3">
-        <v>41.3</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -2962,18 +2810,8 @@
       <c r="B8">
         <v>16.5</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E8" s="3">
-        <v>16.5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="G8" s="3">
-        <v>42.6</v>
-      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -2982,18 +2820,8 @@
       <c r="B9">
         <v>17.899999999999999</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E9" s="3">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="G9" s="3">
-        <v>43.8</v>
-      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -3002,18 +2830,8 @@
       <c r="B10">
         <v>20.8</v>
       </c>
-      <c r="D10" s="2">
-        <v>1.01</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20.8</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -3022,18 +2840,8 @@
       <c r="B11">
         <v>28</v>
       </c>
-      <c r="D11" s="2">
-        <v>1.51</v>
-      </c>
-      <c r="E11" s="3">
-        <v>28</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="G11" s="3">
-        <v>46.3</v>
-      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -3042,30 +2850,14 @@
       <c r="B12">
         <v>23.6</v>
       </c>
-      <c r="D12" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E12" s="3">
-        <v>23.6</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>47.3</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.75</v>
       </c>
       <c r="B13">
-        <v>31.5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="E13" s="3">
         <v>31.5</v>
       </c>
     </row>
